--- a/data/trans_camb/P37A-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P37A-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-5,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-6,26</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,51</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,01</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,74</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 5,8</t>
+          <t>-10,86; 8,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 5,13</t>
+          <t>-14,09; 6,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 3,22</t>
+          <t>-10,99; 10,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 7,14</t>
+          <t>-14,3; 3,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 2,1</t>
+          <t>-13,84; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 3,88</t>
+          <t>-15,48; 2,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,54; 3,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 3,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-11,24; 3,69</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,68%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-1,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-7,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,53%</t>
+          <t>-6,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>-8,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-5,33%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 7,67</t>
+          <t>-13,16; 11,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,79; 6,71</t>
+          <t>-17,33; 9,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,44; 4,76</t>
+          <t>-13,32; 14,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 10,56</t>
+          <t>-19,08; 5,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 2,8</t>
+          <t>-18,25; 6,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 5,34</t>
+          <t>-20,93; 4,07</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-13,62; 4,46</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; 4,17</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-14,53; 5,64</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>-7,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>-13,92</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-6,98</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 7,34</t>
+          <t>-13,44; 9,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 9,77</t>
+          <t>-5,92; 16,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 4,85</t>
+          <t>-10,48; 12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,08; -1,18</t>
+          <t>-12,17; 8,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,8</t>
+          <t>-18,63; 3,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 2,44</t>
+          <t>-27,73; -2,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,71; 6,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 6,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-15,83; 1,48</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-1,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,9%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-12,76%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-10,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,54%</t>
+          <t>-19,41%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-1,65%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-9,39%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 9,36</t>
+          <t>-16,12; 13,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 12,48</t>
+          <t>-7,0; 23,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 6,92</t>
+          <t>-12,84; 16,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,57; -1,8</t>
+          <t>-16,16; 13,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,6; 5,11</t>
+          <t>-24,41; 4,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 3,32</t>
+          <t>-36,19; -3,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 9,54</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-12,44; 9,6</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-20,3; 2,04</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,3</t>
+          <t>-20,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,33</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-11,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 22,52</t>
+          <t>-24,79; 17,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,74; 19,11</t>
+          <t>-62,74; 7,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 11,57</t>
+          <t>-31,44; 16,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 11,73</t>
+          <t>-26,92; 12,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,23</t>
+          <t>-22,34; 19,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 10,55</t>
+          <t>-22,39; 18,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; 9,58</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-38,32; 4,81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,78; 10,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>-7,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,9%</t>
+          <t>-11,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>-1,8%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-14,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-4,68%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 31,97</t>
+          <t>-26,68; 23,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 24,95</t>
+          <t>-67,18; 8,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,62; 15,94</t>
+          <t>-34,16; 21,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-24,28; 16,69</t>
+          <t>-32,64; 19,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 16,96</t>
+          <t>-27,14; 29,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 14,1</t>
+          <t>-26,29; 29,83</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-23,85; 12,61</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-44,04; 5,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-22,57; 13,78</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-5,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>-8,75</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 4,26</t>
+          <t>-8,32; 5,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 4,84</t>
+          <t>-10,65; 5,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,02</t>
+          <t>-9,03; 5,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 1,53</t>
+          <t>-11,48; 1,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,73</t>
+          <t>-12,04; 1,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,46</t>
+          <t>-16,25; -1,9</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 2,16</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,57; 0,93</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-10,3; 0,04</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>-1,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-6,52%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-7,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,95%</t>
+          <t>-12,09%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-3,94%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,48</t>
+          <t>-10,01; 7,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 6,14</t>
+          <t>-12,89; 6,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 2,9</t>
+          <t>-10,77; 7,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 2,18</t>
+          <t>-15,34; 2,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,28</t>
+          <t>-15,79; 1,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 1,94</t>
+          <t>-21,82; -2,82</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; 2,97</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 1,25</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-13,21; 0,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
